--- a/biology/Botanique/Liste_des_fabricants_de_trains_de_jardin/Liste_des_fabricants_de_trains_de_jardin.xlsx
+++ b/biology/Botanique/Liste_des_fabricants_de_trains_de_jardin/Liste_des_fabricants_de_trains_de_jardin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monde du train de jardin et du modélisme ferroviaire est issu de l'industrie du jouet.
 Pour des raisons historiques, les échelles sont variées et souvent présentées de manière ambigües par les fournisseurs qui veulent bénéficier de la notoriété de la voie 'G' (45 mm).
@@ -512,11 +524,48 @@
           <t>Marques en activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Voici une liste de quelques marques reconnues. Elles ne sont pas seules, d'autres existent, souvent sous forme artisanales. De nombreux regroupements ont eu lieu.
-Trains
-Accucraft -AMS-AML -(USA) : Modèles de qualité en laiton à grande échelle (1:19 à 1:32) et vapeur vive
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici une liste de quelques marques reconnues. Elles ne sont pas seules, d'autres existent, souvent sous forme artisanales. De nombreux regroupements ont eu lieu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Marques en activité</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trains</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Accucraft -AMS-AML -(USA) : Modèles de qualité en laiton à grande échelle (1:19 à 1:32) et vapeur vive
 Aristo-craft (USA) : Fabricant de trains de jardin à voie normale au 1:29 et 1:24 sur voie 'G' (racheté par Bachmann Insustries)
 Aster (Japon) : Modèles de précision au 1:32
 Bachmann Industries (Bermudes/Hong Kong) : Trains à voie étroite échelle 1:20.3 sur voie 'G' (anciennes séries 1:22.5)
@@ -528,20 +577,122 @@
 Piko (Allemagne) : Fabricant de trains 1:27 - 1:29, de bâtiments au 1:22.5 et d'accessoires.
 Regner (Allemagne) : Fabricant de trains et autres équipements à vapeur vive
 Roundhouse (modélisme) (UK) : Fabricant de locomotives à vapeur vive à l'échelle 1:19 à 1:22.5
-USA trains (USA) : Modèles au 1:29
-Accessoires
-Brian Jones (Trains de jardin) (UK) : Accessoires électroniques et commandes radio
+USA trains (USA) : Modèles au 1:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Marques en activité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accessoires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brian Jones (Trains de jardin) (UK) : Accessoires électroniques et commandes radio
 Cliff Barker (UK) : Voies Gauge 1 et Gauge 3, commandes radio
 Massoth (Allemagne) : Accessoires électroniques, commandes radio
 RCS (Australie) : Commandes radio
-Timpdon Electronics (UK) : Plus en activité - Accessoires électroniques et commandes radio
-Voies
-GarGraves (USA) : Fabricant de voies
+Timpdon Electronics (UK) : Plus en activité - Accessoires électroniques et commandes radio</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Marques en activité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GarGraves (USA) : Fabricant de voies
 Peco (Royaume-Uni) : Fabricant de voies et de wagons
 Tenmille : Fabricant de voies
-Sunset Valley Railroad (USA) : Fabricant de voies
-Décoration
-Breyer horses (USA): Chevaux et autres animaux 1:12 &amp; 1:32
+Sunset Valley Railroad (USA) : Fabricant de voies</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_fabricants_de_trains_de_jardin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Marques en activité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Breyer horses (USA): Chevaux et autres animaux 1:12 &amp; 1:32
 Garden texture (USA) : Fabricant de ponts, structures et bâtiments en bois - plans
 Imagimonde (France) : Plus en activité - Fabricant de kit de bâtiments et structures 1:22,5
 Papo farm animals (USA) : Animaux de ferme échelle 1:18 à 1:20
@@ -551,8 +702,7 @@
 Safari LTD (USA): Animaux 1:20
 Schleich (Allemagne) : Animaux et personnages 1:20
 Vollmer (Allemagne) : Bâtiments ferroviaires 1:22,5
-Woodland Scenics(USA) : Fabricant de produits de décor.
-Disponibilités par échelles</t>
+Woodland Scenics(USA) : Fabricant de produits de décor.</t>
         </is>
       </c>
     </row>
